--- a/电子系田径纪录/电子系田径纪录.xlsx
+++ b/电子系田径纪录/电子系田径纪录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="125">
   <si>
     <t>项目</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>28秒53</t>
+  </si>
+  <si>
+    <t>第一届“华林杯”短跑精英对抗赛</t>
   </si>
   <si>
     <t>400米</t>
@@ -405,7 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -860,13 +863,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -875,10 +878,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -887,13 +890,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -902,75 +905,75 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -979,30 +982,30 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1011,13 +1014,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -1026,13 +1029,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1041,13 +1044,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
@@ -1056,13 +1059,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -1071,13 +1074,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -1086,13 +1089,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
@@ -1101,13 +1104,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
@@ -1116,13 +1119,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
@@ -1131,28 +1134,28 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1184,7 +1187,7 @@
     <col min="5" max="5" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1216,7 +1219,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1227,298 +1230,298 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
       <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
     </row>

--- a/电子系田径纪录/电子系田径纪录.xlsx
+++ b/电子系田径纪录/电子系田径纪录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="男子"/>
@@ -258,13 +258,13 @@
     <t>王梓任</t>
   </si>
   <si>
-    <t>11秒77</t>
-  </si>
-  <si>
-    <t>田径二队第一届测试赛</t>
-  </si>
-  <si>
-    <t>23秒93</t>
+    <t>11秒59</t>
+  </si>
+  <si>
+    <t>第二届“华林杯”短跑精英对抗赛</t>
+  </si>
+  <si>
+    <t>23秒45</t>
   </si>
   <si>
     <t>53秒16</t>
@@ -830,7 +830,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -884,7 +884,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1176,7 +1176,7 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/电子系田径纪录/电子系田径纪录.xlsx
+++ b/电子系田径纪录/电子系田径纪录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zirenDocuments\college\junior three\体育部\田径队\纪录\EE_track_and_field\电子系田径纪录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884C55BD-CE6F-4E46-866C-76D80278B7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D2CEC1-9641-4EA2-BEB2-BA3DE9D73117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="3150" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>项目</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>都乐</t>
-  </si>
-  <si>
-    <t>14秒09</t>
   </si>
   <si>
     <t>28秒53</t>
@@ -471,12 +468,20 @@
   <si>
     <t>混合投篮</t>
   </si>
+  <si>
+    <t>14秒04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学第67届马约翰杯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -509,6 +514,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -603,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +668,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,7 +953,7 @@
   <sheetPr codeName="男子"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1304,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1320,14 +1337,14 @@
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
+      <c r="C2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -1339,10 +1356,10 @@
         <v>72</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="E3" s="13"/>
     </row>
@@ -1351,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>35</v>
@@ -1366,16 +1383,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
@@ -1383,10 +1400,10 @@
         <v>20</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>35</v>
@@ -1398,10 +1415,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
@@ -1410,34 +1427,34 @@
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="17"/>
       <c r="B9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
@@ -1445,25 +1462,25 @@
         <v>39</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>35</v>
@@ -1475,13 +1492,13 @@
         <v>42</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -1490,10 +1507,10 @@
         <v>45</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>35</v>
@@ -1505,13 +1522,13 @@
         <v>47</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13"/>
     </row>
@@ -1520,10 +1537,10 @@
         <v>50</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>8</v>
@@ -1532,34 +1549,34 @@
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
@@ -1567,10 +1584,10 @@
         <v>56</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>8</v>
@@ -1582,10 +1599,10 @@
         <v>59</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>112</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>8</v>
@@ -1597,10 +1614,10 @@
         <v>62</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>35</v>
@@ -1612,10 +1629,10 @@
         <v>65</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>35</v>
@@ -1627,10 +1644,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>8</v>
@@ -1645,7 +1662,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1654,7 +1671,7 @@
   <sheetPr codeName="混合团体"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1686,13 +1703,13 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -1703,42 +1720,42 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="C5" s="9">
         <v>45</v>
@@ -1750,7 +1767,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>

--- a/电子系田径纪录/电子系田径纪录.xlsx
+++ b/电子系田径纪录/电子系田径纪录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zirenDocuments\college\junior three\体育部\田径队\纪录\EE_track_and_field\电子系田径纪录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D2CEC1-9641-4EA2-BEB2-BA3DE9D73117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA4936-3E07-4D0D-9389-D395964FB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="3150" windowWidth="19200" windowHeight="11170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
   <si>
     <t>项目</t>
   </si>
@@ -45,19 +45,10 @@
     <t>王梓任</t>
   </si>
   <si>
-    <t>11秒45</t>
-  </si>
-  <si>
     <t>清华大学第67届马约翰杯</t>
   </si>
   <si>
-    <t>100米预赛跑出</t>
-  </si>
-  <si>
     <t>200米</t>
-  </si>
-  <si>
-    <t>23秒24</t>
   </si>
   <si>
     <t>400米</t>
@@ -475,6 +466,15 @@
   <si>
     <t>清华大学第67届马约翰杯</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11秒23</t>
+  </si>
+  <si>
+    <t>“跃翔杯”2024年京、津、冀高校田径邀请赛</t>
+  </si>
+  <si>
+    <t>22秒89</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,55 +624,55 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -953,8 +953,8 @@
   <sheetPr codeName="男子"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -967,328 +967,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="D19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1303,8 +1301,8 @@
   <sheetPr codeName="女子"/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1317,342 +1315,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="16" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="13" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="C11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="16" t="s">
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="13" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="13" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="D21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C22" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1671,8 +1669,8 @@
   <sheetPr codeName="混合团体"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1703,76 +1701,76 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C5" s="7">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/电子系田径纪录/电子系田径纪录.xlsx
+++ b/电子系田径纪录/电子系田径纪录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zirenDocuments\college\junior three\体育部\田径队\纪录\EE_track_and_field\电子系田径纪录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AA4936-3E07-4D0D-9389-D395964FB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68576BBC-FE64-4AA3-8BFF-F86B86C541D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
   <si>
     <t>项目</t>
   </si>
@@ -372,25 +372,58 @@
     <t>都乐、吴天淇、陈明兮、王梓任</t>
   </si>
   <si>
-    <t>4分11秒50</t>
-  </si>
-  <si>
     <t>师生异程接力</t>
   </si>
   <si>
     <t>杨天翔、段岳圻、董相显、时瑞杰</t>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
+    <t>20*60迎面接力</t>
+  </si>
+  <si>
+    <t>电子系</t>
+  </si>
+  <si>
+    <t>2分55秒61</t>
+  </si>
+  <si>
+    <t>16男4女</t>
+  </si>
+  <si>
+    <t>混合足球踢准</t>
+  </si>
+  <si>
+    <t>电子男足、电子女足</t>
+  </si>
+  <si>
+    <t>混合投篮</t>
+  </si>
+  <si>
+    <t>14秒04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学第67届马约翰杯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11秒23</t>
+  </si>
+  <si>
+    <t>“跃翔杯”2024年京、津、冀高校田径邀请赛</t>
+  </si>
+  <si>
+    <t>22秒89</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>分</t>
+      <t>清华大学第</t>
     </r>
     <r>
       <rPr>
@@ -398,27 +431,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>33</t>
+      <t>66</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>秒</t>
+      <t>届马约翰杯</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>24</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>清华大学第</t>
     </r>
     <r>
@@ -432,56 +465,64 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>届马约翰杯</t>
     </r>
-  </si>
-  <si>
-    <t>20*60迎面接力</t>
-  </si>
-  <si>
-    <t>电子系</t>
-  </si>
-  <si>
-    <t>2分55秒61</t>
-  </si>
-  <si>
-    <t>16男4女</t>
-  </si>
-  <si>
-    <t>混合足球踢准</t>
-  </si>
-  <si>
-    <t>电子男足、电子女足</t>
-  </si>
-  <si>
-    <t>混合投篮</t>
-  </si>
-  <si>
-    <t>14秒04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华大学第67届马约翰杯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11秒23</t>
-  </si>
-  <si>
-    <t>“跃翔杯”2024年京、津、冀高校田径邀请赛</t>
-  </si>
-  <si>
-    <t>22秒89</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4分33秒24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -493,11 +534,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -519,6 +555,18 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -614,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -622,9 +670,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,40 +684,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -953,8 +995,8 @@
   <sheetPr codeName="男子"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -967,330 +1009,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="C2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="C3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1301,8 +1343,8 @@
   <sheetPr codeName="女子"/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1315,342 +1357,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="C2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1658,7 +1700,7 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1669,8 +1711,8 @@
   <sheetPr codeName="混合团体"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1707,10 +1749,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>133</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
@@ -1718,63 +1760,63 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>120</v>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/电子系田径纪录/电子系田径纪录.xlsx
+++ b/电子系田径纪录/电子系田径纪录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zirenDocuments\college\junior three\体育部\田径队\纪录\EE_track_and_field\电子系田径纪录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chensiqi\田径\电子系田径队\EE_track_and_field\电子系田径纪录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68576BBC-FE64-4AA3-8BFF-F86B86C541D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E820BC91-95A1-46E9-B2B2-D464034FDCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="男子" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
   <si>
     <t>项目</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>“跃翔杯”2024年京、津、冀高校田径邀请赛</t>
-  </si>
-  <si>
-    <t>22秒89</t>
   </si>
   <si>
     <r>
@@ -516,6 +513,13 @@
       <t>50</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22秒68</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京高校短跨项群赛</t>
   </si>
 </sst>
 </file>
@@ -663,7 +667,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,14 +712,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,8 +999,8 @@
   <sheetPr codeName="男子"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1047,11 +1051,11 @@
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>129</v>
+      <c r="C3" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -1466,7 +1470,7 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1483,7 +1487,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10" t="s">
         <v>83</v>
       </c>
@@ -1498,7 +1502,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1515,7 +1519,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>89</v>
       </c>
@@ -1588,7 +1592,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1605,7 +1609,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10" t="s">
         <v>72</v>
       </c>
@@ -1711,7 +1715,7 @@
   <sheetPr codeName="混合团体"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -1749,10 +1753,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>68</v>
@@ -1766,10 +1770,10 @@
         <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="17" t="s">
         <v>131</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="2"/>
     </row>
